--- a/GyroTesting.xlsx
+++ b/GyroTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug Laptop\CargoConnect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B609FF76-6CF8-4A5B-BF98-FFEEA88BCEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729D344-1EDD-4DAB-94BA-CB842696247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{A46B80B7-0C17-43D8-BDD4-B553AFFFF150}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Run #</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>Known Offsets</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Offset</t>
   </si>
 </sst>
 </file>
@@ -79,7 +88,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,7 +122,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73B7979-B7B2-44C3-9E56-90B0D473856D}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -618,7 +627,7 @@
     <col min="6" max="6" width="9.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -673,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -706,8 +715,11 @@
         <f>AVERAGE(E3:E10)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -733,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -759,7 +771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -788,8 +800,14 @@
         <f>AVERAGE(D5:D7)</f>
         <v>89.333333333333329</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -814,8 +832,11 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -840,8 +861,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -870,8 +894,11 @@
         <f>AVERAGE(D8:D10)</f>
         <v>90.666666666666671</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -896,8 +923,29 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N12">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -913,8 +961,11 @@
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1</v>
       </c>
@@ -931,8 +982,11 @@
         <f>C15-D15</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>2</v>
       </c>
@@ -949,8 +1003,11 @@
         <f t="shared" ref="E16:E24" si="3">C16-D16</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>3</v>
       </c>
@@ -967,8 +1024,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>4</v>
       </c>
@@ -985,8 +1045,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1003,8 +1066,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1021,8 +1087,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1039,8 +1108,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1057,8 +1129,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1075,8 +1150,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1093,14 +1171,30 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="N24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2">
         <f>ABS(AVERAGE(E15:E24))</f>
         <v>0.1</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
